--- a/cursoR2024/programaEstudios.xlsx
+++ b/cursoR2024/programaEstudios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscardelatorretorres/Documents/GitHub/cursos/cursoR2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2AF562B-4B54-D944-B2D9-2E7127E79582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D07EE45-4725-8240-B53E-52FA9412A0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="8680" windowWidth="28040" windowHeight="17440" xr2:uid="{CD962CE1-D0F6-644F-9A33-3DBAB5EFA9D8}"/>
   </bookViews>

--- a/cursoR2024/programaEstudios.xlsx
+++ b/cursoR2024/programaEstudios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscardelatorretorres/Documents/GitHub/cursos/cursoR2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D07EE45-4725-8240-B53E-52FA9412A0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A43FCBB-16BE-4C46-90C6-9B052327231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17500" yWindow="8680" windowWidth="28040" windowHeight="17440" xr2:uid="{CD962CE1-D0F6-644F-9A33-3DBAB5EFA9D8}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{CD962CE1-D0F6-644F-9A33-3DBAB5EFA9D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
